--- a/Introducir_Parametros.xlsx
+++ b/Introducir_Parametros.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/22b764a7539785e0/Escritorio/Proyecto_Uchile/System_Simulation_testing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="312" documentId="8_{418788A0-38BF-40B9-B24D-45DD7C952E32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{598F4B11-D9EB-4377-9B39-EA2F1010E051}"/>
+  <xr:revisionPtr revIDLastSave="325" documentId="8_{418788A0-38BF-40B9-B24D-45DD7C952E32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{29C495E6-A887-4794-83BB-0DAB9BD913F2}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -561,31 +561,31 @@
     <t>Número de simulación</t>
   </si>
   <si>
+    <t>Agua</t>
+  </si>
+  <si>
+    <t>Nombre, modelo o código del colector</t>
+  </si>
+  <si>
+    <t>Intersección de la curva de eficiencia de los colectores</t>
+  </si>
+  <si>
+    <t>Flujo en campo solar [kg/min]</t>
+  </si>
+  <si>
+    <t>Inclinación de los colectores respecto al plano horizontal [°]</t>
+  </si>
+  <si>
+    <t>Biaxial</t>
+  </si>
+  <si>
+    <t>Nombre de archivo con datos meteorológicos</t>
+  </si>
+  <si>
+    <t>Relación de aspecto del tanque (altura/diámetro)</t>
+  </si>
+  <si>
     <t>DHTMY_E_7IH2CL</t>
-  </si>
-  <si>
-    <t>Agua</t>
-  </si>
-  <si>
-    <t>Nombre, modelo o código del colector</t>
-  </si>
-  <si>
-    <t>Intersección de la curva de eficiencia de los colectores</t>
-  </si>
-  <si>
-    <t>Flujo en campo solar [kg/min]</t>
-  </si>
-  <si>
-    <t>Inclinación de los colectores respecto al plano horizontal [°]</t>
-  </si>
-  <si>
-    <t>Biaxial</t>
-  </si>
-  <si>
-    <t>Nombre de archivo con datos meteorológicos</t>
-  </si>
-  <si>
-    <t>Relación de aspecto del tanque (altura/diámetro)</t>
   </si>
 </sst>
 </file>
@@ -1353,7 +1353,7 @@
   <dimension ref="A1:Z56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1372,15 +1372,15 @@
     </row>
     <row r="2" spans="1:12" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" s="24">
         <v>10002107</v>
@@ -1396,7 +1396,7 @@
     </row>
     <row r="5" spans="1:12" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" s="19">
         <v>0.42</v>
@@ -1423,7 +1423,7 @@
         <v>12</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:12" s="2" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -1541,7 +1541,7 @@
         <v>20</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -1570,7 +1570,7 @@
     </row>
     <row r="16" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16" s="19">
         <v>35</v>
@@ -1594,7 +1594,7 @@
     </row>
     <row r="19" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B19" s="19">
         <v>2</v>
@@ -1610,7 +1610,7 @@
     </row>
     <row r="21" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B21" s="19">
         <v>5</v>
